--- a/Tracbility matrix.xlsx
+++ b/Tracbility matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E18A30-4587-413D-A65C-23C5105F7554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387B8547-5859-4AF4-9787-0402CEE66139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="329">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
@@ -696,6 +696,318 @@
   </si>
   <si>
     <t>Facebook Mobile APP</t>
+  </si>
+  <si>
+    <t>FR3</t>
+  </si>
+  <si>
+    <t>TS-007</t>
+  </si>
+  <si>
+    <t>TS-008</t>
+  </si>
+  <si>
+    <t>TS-009</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_001</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_002</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_003</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_004</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_005</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_006</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_007</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_008</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_009</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_010</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_011</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_012</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_013</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_014</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_015</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_016</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_017</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_018</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_019</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_020</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_021</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_022</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_023</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_024</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_025</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_026</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_027</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_028</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_029</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_GUI_030</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_001</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_002</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_003</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_004</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_005</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_006</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_007</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_008</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_009</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_010</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_011</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_012</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_013</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_014</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_015</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_016</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_017</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_018</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_019</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_020</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_021</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_022</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_023</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_024</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_025</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_026</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_027</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_028</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_029</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_030</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_031</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_032</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_033</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_034</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_035</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_036</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_037</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_038</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_039</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_040</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_041</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_042</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_043</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_044</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_045</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_046</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_047</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_048</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_049</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Positive case_050</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_001</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_002</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_003</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_004</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_005</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_006</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_007</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_008</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_009</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_010</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_011</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_012</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_013</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_014</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_015</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_016</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_017</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_018</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_019</t>
+  </si>
+  <si>
+    <t>FaceBook_messenger_Negative case_020</t>
   </si>
 </sst>
 </file>
@@ -907,15 +1219,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,10 +1458,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1210,10 +1522,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1545,7 +1857,7 @@
     </row>
     <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>117</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2097,7 +2409,7 @@
     </row>
     <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="13" t="s">
         <v>118</v>
       </c>
       <c r="C85" s="6" t="s">
@@ -2318,10 +2630,10 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="12" t="s">
         <v>219</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -2653,7 +2965,7 @@
     </row>
     <row r="135" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="13" t="s">
         <v>220</v>
       </c>
       <c r="C135" s="6" t="s">
@@ -3205,7 +3517,7 @@
     </row>
     <row r="185" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="13" t="s">
         <v>221</v>
       </c>
       <c r="C185" s="6" t="s">
@@ -3425,9 +3737,1116 @@
         <v>99</v>
       </c>
     </row>
+    <row r="205" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A205" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D205" s="3"/>
+      <c r="E205" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D206" s="5"/>
+      <c r="E206" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D207" s="5"/>
+      <c r="E207" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D208" s="5"/>
+      <c r="E208" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D210" s="5"/>
+      <c r="E210" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D211" s="5"/>
+      <c r="E211" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D212" s="5"/>
+      <c r="E212" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D213" s="5"/>
+      <c r="E213" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D214" s="5"/>
+      <c r="E214" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D215" s="5"/>
+      <c r="E215" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D216" s="5"/>
+      <c r="E216" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D217" s="5"/>
+      <c r="E217" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D218" s="5"/>
+      <c r="E218" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D219" s="5"/>
+      <c r="E219" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D220" s="5"/>
+      <c r="E220" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D221" s="5"/>
+      <c r="E221" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D222" s="5"/>
+      <c r="E222" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D223" s="5"/>
+      <c r="E223" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D224" s="5"/>
+      <c r="E224" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D225" s="5"/>
+      <c r="E225" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D226" s="5"/>
+      <c r="E226" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D227" s="5"/>
+      <c r="E227" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D228" s="8"/>
+      <c r="E228" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D229" s="8"/>
+      <c r="E229" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D230" s="8"/>
+      <c r="E230" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D231" s="8"/>
+      <c r="E231" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D232" s="8"/>
+      <c r="E232" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D233" s="8"/>
+      <c r="E233" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A234" s="10"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D234" s="8"/>
+      <c r="E234" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A235" s="10"/>
+      <c r="B235" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D235" s="8"/>
+      <c r="E235" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D236" s="8"/>
+      <c r="E236" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D237" s="8"/>
+      <c r="E237" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D238" s="8"/>
+      <c r="E238" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D239" s="8"/>
+      <c r="E239" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D240" s="8"/>
+      <c r="E240" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A241" s="10"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D241" s="8"/>
+      <c r="E241" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A242" s="10"/>
+      <c r="B242" s="10"/>
+      <c r="C242" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D242" s="8"/>
+      <c r="E242" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A243" s="10"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D243" s="8"/>
+      <c r="E243" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A244" s="10"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D244" s="8"/>
+      <c r="E244" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A245" s="10"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D245" s="8"/>
+      <c r="E245" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D246" s="8"/>
+      <c r="E246" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A247" s="10"/>
+      <c r="B247" s="10"/>
+      <c r="C247" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D247" s="8"/>
+      <c r="E247" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A248" s="10"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D248" s="8"/>
+      <c r="E248" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A249" s="10"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D249" s="8"/>
+      <c r="E249" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D250" s="8"/>
+      <c r="E250" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A251" s="10"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D251" s="8"/>
+      <c r="E251" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A252" s="10"/>
+      <c r="B252" s="10"/>
+      <c r="C252" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D252" s="8"/>
+      <c r="E252" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D253" s="8"/>
+      <c r="E253" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A254" s="10"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D254" s="8"/>
+      <c r="E254" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A255" s="10"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D255" s="8"/>
+      <c r="E255" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A256" s="10"/>
+      <c r="B256" s="10"/>
+      <c r="C256" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D256" s="8"/>
+      <c r="E256" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A257" s="10"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D257" s="8"/>
+      <c r="E257" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A258" s="10"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D258" s="8"/>
+      <c r="E258" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A259" s="10"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D259" s="8"/>
+      <c r="E259" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A260" s="10"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D260" s="8"/>
+      <c r="E260" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A261" s="10"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D261" s="8"/>
+      <c r="E261" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A262" s="10"/>
+      <c r="B262" s="10"/>
+      <c r="C262" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D262" s="8"/>
+      <c r="E262" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A263" s="10"/>
+      <c r="B263" s="10"/>
+      <c r="C263" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D263" s="8"/>
+      <c r="E263" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A264" s="10"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D264" s="8"/>
+      <c r="E264" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A265" s="10"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D265" s="8"/>
+      <c r="E265" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A266" s="10"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D266" s="8"/>
+      <c r="E266" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A267" s="10"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D267" s="8"/>
+      <c r="E267" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A268" s="10"/>
+      <c r="B268" s="10"/>
+      <c r="C268" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D268" s="8"/>
+      <c r="E268" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A269" s="10"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D269" s="8"/>
+      <c r="E269" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D270" s="8"/>
+      <c r="E270" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A271" s="10"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D271" s="8"/>
+      <c r="E271" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A272" s="10"/>
+      <c r="B272" s="10"/>
+      <c r="C272" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D272" s="8"/>
+      <c r="E272" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A273" s="10"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D273" s="8"/>
+      <c r="E273" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A274" s="10"/>
+      <c r="B274" s="10"/>
+      <c r="C274" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D274" s="8"/>
+      <c r="E274" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A275" s="10"/>
+      <c r="B275" s="10"/>
+      <c r="C275" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D275" s="8"/>
+      <c r="E275" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A276" s="10"/>
+      <c r="B276" s="10"/>
+      <c r="C276" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D276" s="8"/>
+      <c r="E276" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A277" s="10"/>
+      <c r="B277" s="10"/>
+      <c r="C277" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D277" s="8"/>
+      <c r="E277" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A278" s="10"/>
+      <c r="B278" s="10"/>
+      <c r="C278" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D278" s="8"/>
+      <c r="E278" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A279" s="10"/>
+      <c r="B279" s="10"/>
+      <c r="C279" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D279" s="8"/>
+      <c r="E279" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A280" s="10"/>
+      <c r="B280" s="10"/>
+      <c r="C280" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D280" s="8"/>
+      <c r="E280" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A281" s="10"/>
+      <c r="B281" s="10"/>
+      <c r="C281" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D281" s="8"/>
+      <c r="E281" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A282" s="10"/>
+      <c r="B282" s="10"/>
+      <c r="C282" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D282" s="8"/>
+      <c r="E282" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A283" s="10"/>
+      <c r="B283" s="10"/>
+      <c r="C283" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D283" s="8"/>
+      <c r="E283" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A284" s="10"/>
+      <c r="B284" s="11"/>
+      <c r="C284" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D284" s="8"/>
+      <c r="E284" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A285" s="10"/>
+      <c r="B285" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D285" s="8"/>
+      <c r="E285" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A286" s="10"/>
+      <c r="B286" s="10"/>
+      <c r="C286" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D286" s="8"/>
+      <c r="E286" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A287" s="10"/>
+      <c r="B287" s="10"/>
+      <c r="C287" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D287" s="8"/>
+      <c r="E287" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A288" s="10"/>
+      <c r="B288" s="10"/>
+      <c r="C288" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D288" s="8"/>
+      <c r="E288" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A289" s="10"/>
+      <c r="B289" s="10"/>
+      <c r="C289" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D289" s="8"/>
+      <c r="E289" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A290" s="10"/>
+      <c r="B290" s="10"/>
+      <c r="C290" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D290" s="8"/>
+      <c r="E290" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A291" s="10"/>
+      <c r="B291" s="10"/>
+      <c r="C291" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D291" s="8"/>
+      <c r="E291" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A292" s="10"/>
+      <c r="B292" s="10"/>
+      <c r="C292" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D292" s="8"/>
+      <c r="E292" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A293" s="10"/>
+      <c r="B293" s="10"/>
+      <c r="C293" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D293" s="8"/>
+      <c r="E293" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A294" s="10"/>
+      <c r="B294" s="10"/>
+      <c r="C294" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D294" s="8"/>
+      <c r="E294" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A295" s="10"/>
+      <c r="B295" s="10"/>
+      <c r="C295" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D295" s="8"/>
+      <c r="E295" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A296" s="10"/>
+      <c r="B296" s="10"/>
+      <c r="C296" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D296" s="8"/>
+      <c r="E296" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A297" s="10"/>
+      <c r="B297" s="10"/>
+      <c r="C297" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D297" s="8"/>
+      <c r="E297" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A298" s="10"/>
+      <c r="B298" s="10"/>
+      <c r="C298" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D298" s="8"/>
+      <c r="E298" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A299" s="10"/>
+      <c r="B299" s="10"/>
+      <c r="C299" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D299" s="8"/>
+      <c r="E299" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A300" s="10"/>
+      <c r="B300" s="10"/>
+      <c r="C300" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D300" s="8"/>
+      <c r="E300" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A301" s="10"/>
+      <c r="B301" s="10"/>
+      <c r="C301" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D301" s="8"/>
+      <c r="E301" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A302" s="10"/>
+      <c r="B302" s="10"/>
+      <c r="C302" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D302" s="8"/>
+      <c r="E302" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A303" s="10"/>
+      <c r="B303" s="10"/>
+      <c r="C303" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D303" s="8"/>
+      <c r="E303" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A304" s="11"/>
+      <c r="B304" s="11"/>
+      <c r="C304" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D304" s="8"/>
+      <c r="E304" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A105:A204"/>
+  <mergeCells count="15">
     <mergeCell ref="B85:B104"/>
     <mergeCell ref="A5:A104"/>
     <mergeCell ref="A1:E1"/>
@@ -3435,6 +4854,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:B34"/>
     <mergeCell ref="B35:B84"/>
+    <mergeCell ref="A205:A304"/>
+    <mergeCell ref="B205:B234"/>
+    <mergeCell ref="B235:B284"/>
+    <mergeCell ref="B285:B304"/>
+    <mergeCell ref="A105:A204"/>
     <mergeCell ref="B105:B134"/>
     <mergeCell ref="B135:B184"/>
     <mergeCell ref="B185:B204"/>
@@ -3446,1026 +4870,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0596-E84B-45D9-AD9C-6E576159AA26}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection sqref="A1:D100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="87" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A30"/>
-    <mergeCell ref="A31:A80"/>
-    <mergeCell ref="A81:A100"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>